--- a/excelTables/Cars.xlsx
+++ b/excelTables/Cars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\bmstu\1.2\praktika_program\app_main\excelTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E66ED07-39B1-4E68-A93B-3D210B7C6586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B2EAF0-E1F6-4BF2-B6BE-E5FEF5B2D4BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cars" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>№</t>
   </si>
@@ -107,23 +107,29 @@
     <t>qwe</t>
   </si>
   <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>f111</t>
-  </si>
-  <si>
-    <t>x7</t>
-  </si>
-  <si>
     <t>8q</t>
+  </si>
+  <si>
+    <t>RS6 III</t>
+  </si>
+  <si>
+    <t>Daewoo 1</t>
+  </si>
+  <si>
+    <t>Mustang GT</t>
+  </si>
+  <si>
+    <t>Octavia III</t>
+  </si>
+  <si>
+    <t>Octavia II</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -131,6 +137,19 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,8 +172,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -469,13 +490,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -499,216 +523,216 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2">
         <v>434</v>
       </c>
       <c r="E2">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="F2">
-        <v>1000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>250</v>
+        <v>434</v>
       </c>
       <c r="E3">
         <v>2014</v>
       </c>
       <c r="F3">
-        <v>1000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>123</v>
+        <v>250</v>
       </c>
       <c r="E4">
         <v>2014</v>
       </c>
       <c r="F4">
-        <v>1000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="E5">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="F5">
-        <v>1000000</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F6">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="E7">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="F7">
-        <v>1000000</v>
+        <v>1150000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E8">
         <v>2014</v>
       </c>
       <c r="F8">
-        <v>1000000</v>
+        <v>1201200</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>317</v>
       </c>
       <c r="E9">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="F9">
-        <v>1000000</v>
+        <v>2800000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>252</v>
+        <v>52</v>
       </c>
       <c r="E10">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F10">
-        <v>1000000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>400</v>
+        <v>52</v>
       </c>
       <c r="E11">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F11">
-        <v>1000000</v>
+        <v>149000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="E12">
         <v>2014</v>
@@ -719,30 +743,191 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>110</v>
+      </c>
+      <c r="E13">
+        <v>2015</v>
+      </c>
+      <c r="F13">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>300</v>
+      </c>
+      <c r="E14">
+        <v>2018</v>
+      </c>
+      <c r="F14">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>253</v>
+      </c>
+      <c r="E15">
+        <v>2014</v>
+      </c>
+      <c r="F15">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>434</v>
+      </c>
+      <c r="E16">
+        <v>2022</v>
+      </c>
+      <c r="F16">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>300</v>
+      </c>
+      <c r="E17">
+        <v>2019</v>
+      </c>
+      <c r="F17">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>350</v>
+      </c>
+      <c r="E18">
+        <v>2022</v>
+      </c>
+      <c r="F18">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D13">
-        <v>253</v>
-      </c>
-      <c r="E13">
-        <v>2014</v>
-      </c>
-      <c r="F13">
-        <v>1500000</v>
+      <c r="D19">
+        <v>317</v>
+      </c>
+      <c r="E19">
+        <v>2016</v>
+      </c>
+      <c r="F19">
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>300</v>
+      </c>
+      <c r="E20">
+        <v>2020</v>
+      </c>
+      <c r="F20">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>122</v>
+      </c>
+      <c r="E21">
+        <v>2012</v>
+      </c>
+      <c r="F21">
+        <v>750000</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F21">
     <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
